--- a/Project3/Rudy P3 dictionnaire-donnees B.xlsx
+++ b/Project3/Rudy P3 dictionnaire-donnees B.xlsx
@@ -5,17 +5,17 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudy\Desktop\Data Analyst\Studies\OpenClassroom\P3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudy\Documents\GitHub\OpenClassrooms-FRENCH\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B722DD-D9E4-481F-8A3B-C2D5054F3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3985D6-DF6A-4A16-B445-6F8847784330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="840" windowWidth="11040" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="1590" windowWidth="15290" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +42,6 @@
     <t>Type local</t>
   </si>
   <si>
-    <t>Surface reelle bati</t>
-  </si>
-  <si>
     <t>Nombre pieces principales</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>NbrePP</t>
   </si>
   <si>
-    <t>SurfRB</t>
-  </si>
-  <si>
     <t>TypeL</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>Longueur : 8</t>
+  </si>
+  <si>
+    <t>SurfC</t>
+  </si>
+  <si>
+    <t>Surface Carrez du 1ier lot</t>
   </si>
 </sst>
 </file>
@@ -208,13 +208,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,175 +588,176 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>